--- a/data/long_dif/P23_3-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_3-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30,55%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26,86%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26,27%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,6; 39,16</t>
+          <t>28,55; 39,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,47; 35,35</t>
+          <t>23,17; 34,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,13; 32,04</t>
+          <t>19,63; 30,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,34; 29,44</t>
+          <t>24,04; 31,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,37; 34,49</t>
+          <t>22,52; 29,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 30,43</t>
+          <t>22,86; 31,98</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27,26; 34,18</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23,87; 30,35</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 29,88</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,56%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>48,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>39,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40,13%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>47,09%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42,74%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,3; 45,43</t>
+          <t>33,8; 45,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,61; 50,02</t>
+          <t>39,81; 50,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,38; 46,3</t>
+          <t>39,27; 55,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,4; 52,48</t>
+          <t>36,19; 45,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,46; 44,07</t>
+          <t>44,29; 52,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,96; 49,79</t>
+          <t>35,14; 45,25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36,77; 43,92</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43,56; 50,32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38,53; 48,2</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>33,06%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29,32%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26,05%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30,98%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,33; 34,24</t>
+          <t>22,03; 35,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,59; 32,37</t>
+          <t>22,23; 31,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,98; 35,76</t>
+          <t>22,66; 34,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,66; 32,17</t>
+          <t>27,61; 36,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,09; 33,62</t>
+          <t>22,02; 29,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,66; 30,36</t>
+          <t>28,4; 38,5</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26,24; 33,47</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23,2; 28,98</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>26,97; 34,92</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,07; 34,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 34,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,1; 34,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,92; 36,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,92; 32,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,25; 34,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>28,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30,77%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28,52%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,87; 53,41</t>
+          <t>23,39; 34,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,13; 50,81</t>
+          <t>24,54; 35,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,69; 47,09</t>
+          <t>22,92; 35,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,21; 45,63</t>
+          <t>24,84; 35,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,14; 48,32</t>
+          <t>28,02; 36,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,65; 46,34</t>
+          <t>23,02; 33,04</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25,6; 33,16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27,67; 34,55</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24,44; 32,62</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>40,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>42,41%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43,09%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42,24%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>43,08%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,18; 31,65</t>
+          <t>38,69; 52,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,33; 31,36</t>
+          <t>38,6; 50,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 33,75</t>
+          <t>36,65; 52,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,19; 31,67</t>
+          <t>35,77; 46,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,95; 31,14</t>
+          <t>35,82; 44,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,04; 29,93</t>
+          <t>37,08; 47,78</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38,73; 47,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38,51; 45,76</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>38,38; 47,27</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>29,59%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27,0%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28,4%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,43; 57,41</t>
+          <t>20,82; 31,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,16; 31,88</t>
+          <t>21,49; 31,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,8; 44,96</t>
+          <t>21,14; 33,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,01; 34,72</t>
+          <t>25,09; 34,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,38; 47,49</t>
+          <t>23,84; 32,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,4; 30,15</t>
+          <t>25,3; 34,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24,27; 31,42</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24,02; 30,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24,66; 32,48</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,55; 43,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,43; 50,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,03; 46,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38,99; 57,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,97; 40,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,69; 51,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>43,4%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>39,4%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>26,79%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,34; 37,24</t>
+          <t>30,02; 55,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29,62; 51,75</t>
+          <t>14,8; 31,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,83; 39,31</t>
+          <t>19,27; 50,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,89; 34,29</t>
+          <t>25,56; 46,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,04; 35,57</t>
+          <t>17,96; 33,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,87; 39,94</t>
+          <t>13,99; 30,86</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>31,98; 48,06</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>18,39; 29,87</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>19,18; 36,78</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>48,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>44,43%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>33,83%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>43,16%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>32,76%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>29,61; 36,92</t>
+          <t>20,65; 53,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24,26; 31,56</t>
+          <t>27,54; 48,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,24; 32,56</t>
+          <t>10,82; 34,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,36; 30,87</t>
+          <t>27,41; 46,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,59; 33,54</t>
+          <t>38,94; 56,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,78; 30,32</t>
+          <t>33,79; 57,38</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>26,89; 44,58</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36,36; 49,96</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>23,54; 42,47</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>33,99%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>40,45%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>36,44; 44,88</t>
+          <t>16,29; 37,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>40,08; 47,68</t>
+          <t>29,68; 52,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>37,11; 44,28</t>
+          <t>31,23; 68,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>42,26; 48,04</t>
+          <t>20,03; 37,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>37,68; 43,53</t>
+          <t>19,93; 34,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,42; 47,07</t>
+          <t>24,01; 44,92</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 34,11</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>26,7; 41,5</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>31,1; 54,57</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,07; 30,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>24,93; 31,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>27,37; 33,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,4; 29,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>26,08; 30,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>25,37; 29,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>32,91%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>27,69%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>29,31%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>28,12%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>31,06%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>27,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>28,82; 36,91</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>24,77; 31,84</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>23,97; 32,06</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>26,2; 32,66</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>25,51; 30,75</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 29,75</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>28,63; 33,71</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>25,92; 30,35</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>24,94; 29,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>40,87%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>44,21%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>42,08%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>40,29%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>45,25%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>41,39%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>40,57%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>44,75%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>41,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>37,05; 45,44</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>40,6; 47,84</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>37,1; 47,67</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>37,0; 43,91</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>42,19; 48,22</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>38,12; 45,24</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>37,88; 43,32</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>42,15; 46,94</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>38,85; 45,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>26,22%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>30,23%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>30,4%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>26,63%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>31,85%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>31,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>22,89; 30,79</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>24,77; 31,49</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>25,93; 35,05</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>27,55; 33,32</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>24,25; 29,54</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>28,34; 35,21</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>25,89; 30,99</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>25,24; 29,61</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>28,05; 33,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
